--- a/note.xlsx
+++ b/note.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59957B9D-F19B-4B41-BC50-6B97B27050D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAE967B-98A0-49CA-B9CA-260C8407E32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="813" yWindow="-114" windowWidth="35800" windowHeight="20759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="-114" windowWidth="35758" windowHeight="20759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>time exceed</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>make map provide size</t>
+  </si>
+  <si>
+    <t>good example of heap and pq; golang difference of func (a *A) and func(a A)</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -384,6 +387,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>703</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
